--- a/我的/大集PC-后台借款录入.xlsx
+++ b/我的/大集PC-后台借款录入.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="118">
   <si>
     <t>模块</t>
   </si>
@@ -110,11 +110,395 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>验证代理人字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>借款录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证代理人信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用户信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证企业名称字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证企业地址字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，非必填
+2.系统自动带出当前企业用户企业名称字段
+3.字段值为空
+4.系统提示输入内容长度在0-255之间
+5.可正常输入，正常保存
+6.可正常输入，正常保存
+7.正常保存，正常显示 
+8.正常保存，正常显示
+9.系统自动过滤前后的空格</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证借款标题字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证借款金额字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入256个字符
+3.字段输入255个字符（字母数字汉字）
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、
+5.字段输入&lt;script&gt;alert(/xss/)&lt;/script&gt;
+6.字段输入&amp;nbsp
+7.字段输入"    2323   22   "
+8.字段输入&amp;nbsp
+9.字段输入"    2323   22   "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.文本输入框，默认为空，非必填
+2.系统自动带出字段值
+3.字段值为空
+4.系统提示输入内容长度在0-255之间
+5.可正常输入，正常保存，正常显示 
+6.可正常输入，正常保存，正常显示 
+7.正常保存，正常显示 
+8.正常保存，正常显示
+9.系统自动过滤前后的空格
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.查看字段
+2.用户信息用户名选择一条已实名认证的企业用户
+3.用户信息用户名选择一条已实名认证的个人用户
+4.字段输入256个字符
+5.字段输入255个字符（字母数字汉字）
+6.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、
+7.字段输入&lt;script&gt;alert(/xss/)&lt;/script&gt;
+8.字段输入&amp;nbsp
+9.字段输入"    2323   22   "
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.用户信息用户名选择一条已实名认证的企业用户
+3.用户信息用户名选择一条已实名认证的个人用户
+4.字段输入256个字符
+5.字段输入255个字符（字母数字汉字）
+6.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、
+7.字段输入&lt;script&gt;alert(/xss/)&lt;/script&gt;
+8.字段输入&amp;nbsp
+9.字段输入"    2323   22   "</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证标的份额字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入12个数字
+3.字段输入11个数字
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、.,/;'[]\=-汉字、字母
+5.字段输入00236
+6.字段输入0
+7.字段输入空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，必填标识
+2.系统提示输入内容长度在1-11之间
+3.可正常输入，正常保存，正常显示
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入21个数字
+3.字段输入20个数字
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、.,/;'[]\=-汉字、字母
+5.字段输入00236
+6.字段输入0
+7.字段输入空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证每份单价字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆大集金服后台，点击业务后台-借款管理-借款录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证定标要求字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆大集金服后台，点击业务后台-借款管理-借款录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，单位元，默认为空，必填标识
+2.系统提示输入内容长度在1-20之间
+3.可正常输入，正常保存，正常显示 ，自动添加两位小数位，显示为.00
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.借款金额输入10，标的份输入1
+3.借款金额输入10，标的份数不输入
+4.借款金额不输入，标的份数输入1
+5.借款金额输入1，标的份数输入0
+6.借款金额输入999999999999999，标的份数输入1
+7.借款金额输入1，标的份数输入20000，点击提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.静态显示，单位元，默认为空，不可修改，必填标识
+2.系统提示输入内容长度在1-11之间
+3.可正常输入，正常保存，正常显示
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示借款金额不是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目风险等级</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始购买时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束购买时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计起息日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>期限</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许转让</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否允许代偿</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目手续费</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>手续费收取方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高投标金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低投标金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>计息方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否参加超级合伙人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击取消</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统初始化借款录入页面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点击提交</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.系统正确保存页面字段，并发起审核流程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证用途字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.文本输入框，默认为空，非必填
+2.系统提示输入内容长度在0-255之间
+3.可正常输入，正常保存，正常显示 
+4.系统提示输入内容长度在0-255之间
+5.可正常输入，正常保存，正常显示 
+6.可正常输入，正常保存，正常显示 
+7.正常保存，正常显示 
+8.正常保存，正常显示
+9.系统自动过滤前后的空格
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入256个字符
+3.字段输入255个字符（字母数字汉字）
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、
+5.字段输入&lt;script&gt;alert(/xss/)&lt;/script&gt;
+6.字段输入&amp;nbsp
+7.字段输入"    2323   22   "
+8.字段输入空格，输入为空</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.文本输入框，默认为空，必填标识
+2.系统提示输入内容长度在0-255之间
+3.可正常输入，正常保存，正常显示 
+4.可正常输入，正常保存，正常显示 
+5.正常保存，正常显示 
+6.正常保存，正常显示
+7.系统自动过滤前后的空格
+8.系统提示输入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="华文细黑"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>为必输</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，必填标识
+2.系统提示输入内容长度在0-255之间
+3.可正常输入，正常保存，正常显示 
+4.可正常输入，正常保存，正常显示 
+5.可正常输入，正常保存，正常显示 
+6.可正常输入，正常保存，正常显示 
+7.系统自动过滤前后的空格
+8.系统提示输入为必输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择各个选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认否，非必填，下拉内容为否，是
+2.选项可被选中，可正确保存
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.下拉选择大集金服借款合同（四方）
+3.下拉选择应收账款转让及回购协议</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择是</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.查看字段
+2.点击人员选择图标
+3.选择未进行实名认证的个人用户,点击确定
+4.选择未审核通过的企业用户，点击确定
+5.未选择任何用户，点击确定
+6.点击取消
+7.选择一条用户，与借款人为同一个用户
+8.不选择用户，点击移除
+9.选择一条记录，点击移除
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.人员选择控件，不可编辑，必填标识
+2.系统弹窗显示人员选择页面
+3.系统提示未进行实名认证
+4.系统提示未进行实名认证
+5.系统提示请选择一条数据
+6.系统关闭弹窗
+7.系统提示不能为同一个用户
+8.提示选择一条记录
+9.用户移出列表
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -125,17 +509,278 @@
 5.未选择任何用户，点击确定
 6.点击取消
 7.选择一条已实名认证的企业用户
-8.选择一条已实名认证的个人用户</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.人员选择控件，不可编辑
+8.选择一条已实名认证的个人用户
+9.选择一条与定向人为同一人的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人员选择控件，不可编辑，必填标识
 2.系统弹窗显示人员选择页面
 3.系统提示未进行实名认证
 4.系统提示未进行实名认证
 5.系统提示请选择一条数据
 6.系统关闭弹窗
-7.8系统带出代理人，代理人真实姓名，用户类型，托管平台账户，证件类型，证件号码，手机号，邮箱，海航员工字段信息</t>
+7.8系统带出代理人，代理人真实姓名，用户类型，托管平台账户，证件类型，证件号码，手机号，邮箱，海航员工字段信息
+9.系统提示不能为同一人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.点击人员选择图标
+3.选择未进行实名认证的个人用户,点击确定
+4.选择未审核通过的企业用户，点击确定
+5.未选择任何用户，点击确定
+6.点击取消
+7.选择一条已实名认证的企业用户
+8.选择一条已实名认证的个人用户
+9.选择一条与定向人为同一人的用户</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.人员选择控件，不可编辑，必填标识
+2.系统弹窗显示人员选择页面
+3.系统提示未进行实名认证
+4.系统提示未进行实名认证
+5.系统提示请选择一条数据
+6.系统关闭弹窗
+7.8系统带出代理人，代理人真实姓名，用户类型，托管平台账户，证件类型，证件号码，手机号，邮箱，海航员工，企业地址，企业名称字段信息
+9.系统提示不能为同一人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单选框，默认放款计息，选项为放款计息，投资计息
+2.系统带出定向人字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择各个选项</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.单选框，默认否，选项为是，否
+2.可正常操作，可正确保存</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认请选择，有必填标识，下拉内容为大集金服借款合同（三方）
+应收账款转让及回购协议
+大集金服借款合同（四方）
+2.系统带出担保人字段
+3.此选项目前未使用
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入12个数字
+3.字段输入11个数字
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、.,/;'[]\=-汉字、字母
+5.字段输入00236
+6.字段输入0
+7.字段输入空
+8.字段值输入大于借款总额
+9.字段值输入小于最低投标金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，单位元，必填标识
+2.系统提示输入内容长度在1-11之间
+3.可正常输入，正常保存，正常显示
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输
+8.系统提示不能大于借款总额
+9.系统提示不能低于最低投标金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入12个数字
+3.字段输入11个数字
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、.,/;'[]\=-汉字、字母
+5.字段输入00236
+6.字段输入0
+7.字段输入空
+8.字段值输入大于最高投资额度
+9.字段值输入小于单份投资金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，单位元，必填标识
+2.系统提示输入内容长度在1-11之间
+3.可正常输入，正常保存，正常显示
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输
+8.系统提示不能大于最高投资金额
+9.系统提示不能低于单份投资金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.下拉选择到期还本付息
+3.下拉选择每月付息到期还本
+4.下拉选择等额本息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认否，有必填标识，下拉内容为经营贷
+消费贷
+票据贷
+2.选项可被选中，可正确保存
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择各个选项
+3.标的类型选择点对点标的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认否，有必填标识，下拉内容为新手专享
+酷铺专区
+投资专区
+债券转让
+掌合新手专区
+掌合投资专区
+员工专区
+2.选项可被选中，可正确保存
+3.产品类型自动带出员工专区，不可修改
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认请选择，必填，下拉内容为“放款时收取”
+“还款时收取
+2.选项可被选中，可正确保存
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入12个数字
+3.字段输入11个数字
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、,/;'[]\=-汉字、字母
+5.字段输入00236
+6.字段输入0
+7.字段输入空
+8.字段值输入1…2
+9.字段值输入1.26</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认为空，%显示，必填标识
+2.系统提示输入内容长度在1-11之间
+3.可正常输入，正常保存，以.0正常显示，保留一位小数
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输
+8.自动置为1.0
+9.自动置为1.3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面无字段，提交后数据库保存为否。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1页面无字段，提交后数据库保存为否。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.页面无字段，提交后数据库保存为止付+非满标。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.编辑富文本输入框</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.富文本输入框，非必填
+2.可正常编辑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.文本输入框，默认空，必填，单位天
+2.系统提示输入内容长度在1-20之间
+3.可正常输入，正常保存，正常显示 ，自动添加两位小数位，显示为.00
+4.无法输入
+5.系统自动过滤前面数字00
+6.系统提示应大于0
+7.系统提示为必输</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆大集金服后台，点击业务后台-借款管理-借款录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择开始时间小于当前时间
+3.选择开始时间大于结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.日期控件，必填标识，默认显示为空
+2.系统提示开始时间不能小于当前时间
+3.系统提示开始时间不能大于结束时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.选择结束时间小于当前时间
+3.选择结束时间小于开始时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认，必填，下拉内容为5.0,4.5,4.0,3.5,3.0
+2.选项可被选中，可正确保存
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.计息方式为投资计息时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.静态显示，日期格式年月日
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆大集金服后台，点击业务后台-借款管理-借款录入</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.下拉选项，默认请选择，有必填标识，下拉内容为到期还本付息
+每月付息到期还本
+等额本息
+2.期限字段单位为天
+3.期限字段单位为天
+4.期限字段单位为月
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证原始借款企业名称字段</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.查看字段
+2.字段输入256个字符
+3.字段输入255个字符（字母数字汉字）
+4.字段输入！@#￥%……&amp;*（）——+{}|：“？《《，。、；‘【】、
+5.字段输入&lt;script&gt;alert(/xss/)&lt;/script&gt;
+6.字段输入&amp;nbsp
+7.字段输入"    2323   22   "
+8.字段输入空格，输入为空</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +788,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +833,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文细黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +865,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -300,6 +972,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,11 +1020,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -634,10 +1348,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -646,71 +1360,597 @@
       <c r="D2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="126" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:8" ht="141.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="24"/>
       <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="E4" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="24"/>
+      <c r="B5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="4" t="s">
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="173.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="141.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="24"/>
+      <c r="B8" s="26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="4" t="s">
+      <c r="C8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="21" customFormat="1" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="24"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="24"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="126" x14ac:dyDescent="0.15">
+      <c r="A11" s="24"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="17" customFormat="1" ht="126" x14ac:dyDescent="0.15">
+      <c r="A12" s="24"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="17" customFormat="1" ht="110.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="24"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="24"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="24"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A16" s="24"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A17" s="24"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="24"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="A19" s="24"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="24"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="17" customFormat="1" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="24"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="24"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="24"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="24"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="17" customFormat="1" ht="78.75" x14ac:dyDescent="0.15">
+      <c r="A25" s="24"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="189" x14ac:dyDescent="0.15">
+      <c r="A26" s="24"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="24"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="17" customFormat="1" ht="126" x14ac:dyDescent="0.15">
+      <c r="A28" s="24"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="24"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="24"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="24"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="24"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+      <c r="A33" s="24"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="126" x14ac:dyDescent="0.15">
+      <c r="A34" s="24"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="47.25" x14ac:dyDescent="0.15">
+      <c r="A35" s="24"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="141.75" x14ac:dyDescent="0.15">
+      <c r="A36" s="24"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="24"/>
+      <c r="B37" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4" t="s">
+      <c r="D37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="25"/>
+      <c r="B38" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="D38" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A2:A38"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B36"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
